--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="H2">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N2">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q2">
-        <v>0.002582938437333334</v>
+        <v>0.007242975531777779</v>
       </c>
       <c r="R2">
-        <v>0.023246445936</v>
+        <v>0.065186779786</v>
       </c>
       <c r="S2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="T2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="H3">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>17.489707</v>
       </c>
       <c r="O3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q3">
-        <v>0.1486547362968889</v>
+        <v>0.2266238501028889</v>
       </c>
       <c r="R3">
-        <v>1.337892626672</v>
+        <v>2.039614650926</v>
       </c>
       <c r="S3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="T3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="H4">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N4">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O4">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P4">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q4">
-        <v>0.1083755805066667</v>
+        <v>0.2026223626264445</v>
       </c>
       <c r="R4">
-        <v>0.9753802245600002</v>
+        <v>1.823601263638</v>
       </c>
       <c r="S4">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="T4">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="H5">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N5">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q5">
-        <v>0.001646508403555556</v>
+        <v>0.0004457269535555556</v>
       </c>
       <c r="R5">
-        <v>0.014818575632</v>
+        <v>0.004011542582</v>
       </c>
       <c r="S5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="T5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
     </row>
   </sheetData>
